--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10007"/>
+    <workbookView windowWidth="23040" windowHeight="10007" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>时间</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>《精通Git》</t>
+  </si>
+  <si>
+    <t>《JS》</t>
+  </si>
+  <si>
+    <t>每天一小时</t>
   </si>
   <si>
     <t>学习日报</t>
@@ -131,6 +137,16 @@
 4.medium一篇文章，或考研公众号一篇文章，写日记</t>
   </si>
   <si>
+    <t>1.英语一篇考研阅读文章，一篇Medium文章,更新了日记；
+2.《微积分普林斯顿读本》P26-P34；
+3.《精通Git》P12-
+4.《路由与交换机技术》P12-
+5.《JS》一小时</t>
+  </si>
+  <si>
+    <t>2023年 10月 11日</t>
+  </si>
+  <si>
     <t>学习周报</t>
   </si>
   <si>
@@ -144,6 +160,15 @@
   </si>
   <si>
     <t>2023年10月9日-2023年10月15日</t>
+  </si>
+  <si>
+    <t>第一个月第二周231009-231015
+试运行，每天：
+1. 《路由与交换机技术》半小时
+2.《微积分普林斯顿读本》15min
+3.《精通Git》15min
+4.medium一篇文章，或考研公众号一篇文章，写日记
+5.《JS》每天一小时</t>
   </si>
 </sst>
 </file>
@@ -156,7 +181,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,13 +254,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -571,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -685,6 +703,30 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -790,48 +832,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,101 +886,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,6 +1063,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,13 +1393,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="18" style="27" customWidth="1"/>
@@ -1371,10 +1422,10 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1385,8 +1436,8 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1395,8 +1446,8 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1405,8 +1456,8 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1414,10 +1465,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" ht="15" customHeight="1" spans="1:4">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1427,10 +1488,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1443,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1545,26 +1606,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="20.4" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:4">
@@ -1572,13 +1633,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:4">
@@ -1586,13 +1647,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="1:4">
@@ -1600,13 +1661,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="100.05" customHeight="1" spans="1:4">
@@ -1614,13 +1675,27 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A12" s="10">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1726,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1753,26 +1828,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:4">
@@ -1780,13 +1855,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:4">
@@ -1795,10 +1870,10 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10007" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10007"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -139,8 +139,8 @@
   <si>
     <t>1.英语一篇考研阅读文章，一篇Medium文章,更新了日记；
 2.《微积分普林斯顿读本》P26-P34；
-3.《精通Git》P12-
-4.《路由与交换机技术》P12-
+3.《精通Git》P12-P16
+4.《路由与交换机技术》P12-P17
 5.《JS》一小时</t>
   </si>
   <si>
@@ -1395,8 +1395,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1490,7 +1490,7 @@
   <sheetPr/>
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10007"/>
+    <workbookView windowWidth="23040" windowHeight="10007" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>时间</t>
   </si>
@@ -145,6 +145,13 @@
   </si>
   <si>
     <t>2023年 10月 11日</t>
+  </si>
+  <si>
+    <t>1.英语一篇考研阅读文章，一篇Medium文章,更新了日记；
+2.《微积分普林斯顿读本》P34-P40；
+3.《精通Git》P16-P22
+4.《路由与交换机技术》P17-P37
+5.《JS》一小时</t>
   </si>
   <si>
     <t>学习周报</t>
@@ -1395,7 +1402,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1488,10 +1495,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1695,6 +1702,20 @@
         <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A13" s="10">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1726,7 +1747,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1855,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>24</v>
@@ -1870,10 +1891,10 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10007" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>时间</t>
   </si>
@@ -152,6 +152,19 @@
 3.《精通Git》P16-P22
 4.《路由与交换机技术》P17-P37
 5.《JS》一小时</t>
+  </si>
+  <si>
+    <t>2023年 10月 12日</t>
+  </si>
+  <si>
+    <t>1.英语一篇考研阅读文章，一篇Medium文章,更新了日记；
+2.《微积分普林斯顿读本》P40-P48；
+3.《精通Git》P22-P28
+4.《路由与交换机技术》P37-P46
+5.《JS》一小时</t>
+  </si>
+  <si>
+    <t>2023年 10月 13日</t>
   </si>
   <si>
     <t>学习周报</t>
@@ -1495,10 +1508,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1713,9 +1726,23 @@
         <v>34</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1747,7 +1774,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1876,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>24</v>
@@ -1891,10 +1918,10 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>时间</t>
   </si>
@@ -165,6 +165,16 @@
   </si>
   <si>
     <t>2023年 10月 13日</t>
+  </si>
+  <si>
+    <t>1.英语一篇考研阅读文章，一篇Medium文章,更新了日记；
+2.《微积分普林斯顿读本》P48-P55；
+3.《精通Git》P28-P31
+4.《路由与交换机技术》P46-P56
+5.《JS》一小时</t>
+  </si>
+  <si>
+    <t>2023年 10月 14日</t>
   </si>
   <si>
     <t>学习周报</t>
@@ -1508,10 +1518,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1746,6 +1756,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A15" s="10">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:W4"/>
@@ -1761,7 +1785,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1774,7 +1798,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1903,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>24</v>
@@ -1918,10 +1942,10 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>时间</t>
   </si>
@@ -175,6 +175,17 @@
   </si>
   <si>
     <t>2023年 10月 14日</t>
+  </si>
+  <si>
+    <t>1.英语一篇考研阅读文章，一篇Medium文章,更新了日记；
+2.《微积分普林斯顿读本》P55-P62；
+3.《精通Git》P31-P34
+4.《路由与交换机技术》P46-P56:重新安装软件
+5.《JS》一小时：学不进了，只学了半小时
+6.《安规》300题</t>
+  </si>
+  <si>
+    <t>2023年 10月 15日</t>
   </si>
   <si>
     <t>学习周报</t>
@@ -1518,10 +1529,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1767,6 +1778,20 @@
         <v>39</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A16" s="10">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1798,7 +1823,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1927,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>24</v>
@@ -1942,10 +1967,10 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>时间</t>
   </si>
@@ -39,7 +39,7 @@
     <t>路由与交换技术</t>
   </si>
   <si>
-    <t>第一周半小时/天，第二周一小时/天，第三周一个半小时/天，第四周两小时/天</t>
+    <t>第一周半小时/天，第二周45min/天，第三周一个小时/天，第四周两小时/天</t>
   </si>
   <si>
     <t>英语</t>
@@ -188,6 +188,30 @@
     <t>2023年 10月 15日</t>
   </si>
   <si>
+    <t>第一个月第二周231009-231015
+试运行，每天：
+1. 《路由与交换机技术》一个小时
+2.《微积分普林斯顿读本》20min
+3.《精通Git》20min
+4.medium一篇文章，或考研公众号一篇文章，写日记</t>
+  </si>
+  <si>
+    <t>1.《安规题库》120填空题
+2.《普林斯顿微积顿读本》P62-P70</t>
+  </si>
+  <si>
+    <t>2023年 10月 17日</t>
+  </si>
+  <si>
+    <t>第一个月第三周231016-231022
+试运行，每天：
+1. 《路由与交换机技术》45min
+2.《微积分普林斯顿读本》20min
+3.《精通Git》20min
+4.medium一篇文章，或考研公众号一篇文章，写日记
+5.《JS》每天半个小时</t>
+  </si>
+  <si>
     <t>学习周报</t>
   </si>
   <si>
@@ -198,6 +222,13 @@
   </si>
   <si>
     <t>2023年10月2日-2023年10月8日</t>
+  </si>
+  <si>
+    <t>1.英语坚持每天阅读至少一篇考研阅读文章.坚持写日记
+2.《微积分普林斯顿读本》P16-P62
+3.精通Git》P16-P34
+4.《路由与交换机技术》P0-P56
+5.《JS》学到了ES6</t>
   </si>
   <si>
     <t>2023年10月9日-2023年10月15日</t>
@@ -210,6 +241,9 @@
 3.《精通Git》15min
 4.medium一篇文章，或考研公众号一篇文章，写日记
 5.《JS》每天一小时</t>
+  </si>
+  <si>
+    <t>2023年10月16日-2023年10月22日</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1471,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1529,10 +1563,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1792,7 +1826,21 @@
         <v>41</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A17" s="10">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1807,10 +1855,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1823,7 +1871,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1952,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>24</v>
@@ -1965,12 +2013,26 @@
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="10007"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>时间</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>《精通Git》</t>
-  </si>
-  <si>
-    <t>《JS》</t>
-  </si>
-  <si>
-    <t>每天一小时</t>
   </si>
   <si>
     <t>学习日报</t>
@@ -197,7 +191,10 @@
   </si>
   <si>
     <t>1.《安规题库》120填空题
-2.《普林斯顿微积顿读本》P62-P70</t>
+2.《普林斯顿微积顿读本》P62-P70
+3.《路由与交换机技术》P56-P70
+4.《精通Git》P34-P40
+5.《JS》半小时</t>
   </si>
   <si>
     <t>2023年 10月 17日</t>
@@ -210,6 +207,23 @@
 3.《精通Git》20min
 4.medium一篇文章，或考研公众号一篇文章，写日记
 5.《JS》每天半个小时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.《普林斯顿微积顿读本》P70-P78
+2.《路由与交换机技术》P70-P90
+3.《精通Git》P34-P40</t>
+  </si>
+  <si>
+    <t>2023年 10月 18日</t>
+  </si>
+  <si>
+    <t>第一个月第三周231016-231022
+试运行，每天：
+1. 《路由与交换机技术》45min
+2.《微积分普林斯顿读本》20min
+3.《精通Git》20min
+4.medium一篇文章，或考研公众号一篇文章，写日记</t>
   </si>
   <si>
     <t>学习周报</t>
@@ -1052,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,9 +1158,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1468,13 +1479,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="18" style="27" customWidth="1"/>
@@ -1540,20 +1551,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1563,10 +1564,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1579,7 +1580,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1681,26 +1682,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="20.4" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="D7" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:4">
@@ -1708,13 +1709,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:4">
@@ -1722,13 +1723,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="1:4">
@@ -1736,13 +1737,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="100.05" customHeight="1" spans="1:4">
@@ -1750,13 +1751,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" ht="100.05" customHeight="1" spans="1:4">
@@ -1764,13 +1765,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="100.05" customHeight="1" spans="1:4">
@@ -1778,13 +1779,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="100.05" customHeight="1" spans="1:4">
@@ -1792,13 +1793,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1806,41 +1807,55 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
       <c r="A16" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
       <c r="A17" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="23" t="s">
+    </row>
+    <row r="18" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A18" s="10">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="C18" s="23" t="s">
         <v>45</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1886,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1973,26 +1988,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:4">
@@ -2000,13 +2015,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:4">
@@ -2014,13 +2029,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="1:4">
@@ -2029,10 +2044,10 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>时间</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>《精通Git》</t>
+  </si>
+  <si>
+    <t>网络是怎样连接的</t>
   </si>
   <si>
     <t>学习日报</t>
@@ -212,7 +215,8 @@
     <t xml:space="preserve">
 1.《普林斯顿微积顿读本》P70-P78
 2.《路由与交换机技术》P70-P90
-3.《精通Git》P34-P40</t>
+3.《精通Git》P34-P40
+4.英语一篇考研阅读文章，一篇Medium文章；</t>
   </si>
   <si>
     <t>2023年 10月 18日</t>
@@ -224,6 +228,12 @@
 2.《微积分普林斯顿读本》20min
 3.《精通Git》20min
 4.medium一篇文章，或考研公众号一篇文章，写日记</t>
+  </si>
+  <si>
+    <t>1.《普林斯顿微积顿读本》P78-P86
+2.《路由与交换机技术》P90-P102
+3.《精通Git》P40-P55
+4.《网络是怎样连接的》P1-P11</t>
   </si>
   <si>
     <t>学习周报</t>
@@ -258,6 +268,15 @@
   </si>
   <si>
     <t>2023年10月16日-2023年10月22日</t>
+  </si>
+  <si>
+    <t>第一个月第三周231016-231022
+试运行，每天：
+1. 《路由与交换机技术》45min
+2.《微积分普林斯顿读本》20min
+3.《精通Git》20min
+4.medium一篇文章，或考研公众号一篇文章，写日记
+5.《网络是怎样连接的》10min</t>
   </si>
 </sst>
 </file>
@@ -270,7 +289,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,11 +352,16 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -484,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +547,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -678,7 +714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -796,26 +832,41 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFE6E6E6"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFE6E6E6"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF5A5A5A"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF5A5A5A"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -924,10 +975,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,36 +987,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,98 +1023,101 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,14 +1202,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1479,82 +1545,92 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="18" style="27" customWidth="1"/>
-    <col min="3" max="3" width="23.7777777777778" style="27" customWidth="1"/>
-    <col min="4" max="4" width="76.4444444444444" style="27" customWidth="1"/>
+    <col min="1" max="1" width="17.7407407407407" customWidth="1"/>
+    <col min="2" max="2" width="14.1111111111111" style="27" customWidth="1"/>
+    <col min="3" max="3" width="35.9259259259259" style="27" customWidth="1"/>
+    <col min="4" max="4" width="40.7777777777778" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:4">
+    <row r="1" ht="20.85" customHeight="1" spans="1:4">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:4">
-      <c r="A2" s="29" t="s">
+    <row r="2" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:4">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="8" t="s">
+    <row r="5" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1564,10 +1640,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1580,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1682,26 +1758,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="20.4" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:4">
@@ -1709,13 +1785,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:4">
@@ -1723,13 +1799,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="1:4">
@@ -1737,13 +1813,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="100.05" customHeight="1" spans="1:4">
@@ -1751,13 +1827,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="100.05" customHeight="1" spans="1:4">
@@ -1765,13 +1841,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" ht="100.05" customHeight="1" spans="1:4">
@@ -1779,13 +1855,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="100.05" customHeight="1" spans="1:4">
@@ -1793,13 +1869,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1807,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1821,13 +1897,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1835,13 +1911,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1849,13 +1925,27 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A19" s="10">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>46</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1872,8 +1962,8 @@
   <sheetPr/>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1886,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1988,26 +2078,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:4">
@@ -2015,13 +2105,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:4">
@@ -2029,13 +2119,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="1:4">
@@ -2044,10 +2134,10 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="10007"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>时间</t>
   </si>
@@ -30,10 +30,10 @@
     <t>时间/量</t>
   </si>
   <si>
-    <t>第一个月</t>
-  </si>
-  <si>
-    <t>试运行</t>
+    <t>前三个月</t>
+  </si>
+  <si>
+    <t>试运行：探索适合自己的学习节奏</t>
   </si>
   <si>
     <t>路由与交换技术</t>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>网络是怎样连接的</t>
+  </si>
+  <si>
+    <t>离散数学</t>
   </si>
   <si>
     <t>学习日报</t>
@@ -236,6 +239,30 @@
 4.《网络是怎样连接的》P1-P11</t>
   </si>
   <si>
+    <t>2023年 10月 19日</t>
+  </si>
+  <si>
+    <t>1.《普林斯顿微积顿读本》P78-P86
+2.《路由与交换机技术》P102-P118
+3.《精通Git》P55-P63
+4.《网络是怎样连接的》P11-P16
+5.《离散数学》前言-致学生
+6.英语考研阅读文章+Medium一篇文章</t>
+  </si>
+  <si>
+    <t>2023年 10月 20日</t>
+  </si>
+  <si>
+    <t>第一个月第三周231016-231022
+试运行，每天：
+1. 《路由与交换机技术》45min
+2.《微积分普林斯顿读本》20min
+3.《精通Git》20min
+4.medium一篇文章，或考研公众号一篇文章，写日记
+5.《网络是怎样连接的》10min
+6.《离散数学》10min</t>
+  </si>
+  <si>
     <t>学习周报</t>
   </si>
   <si>
@@ -276,7 +303,8 @@
 2.《微积分普林斯顿读本》20min
 3.《精通Git》20min
 4.medium一篇文章，或考研公众号一篇文章，写日记
-5.《网络是怎样连接的》10min</t>
+5.《网络是怎样连接的》10min
+5.《离散数学》10min</t>
   </si>
 </sst>
 </file>
@@ -714,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -871,6 +899,61 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -978,7 +1061,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,7 +1091,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,28 +1109,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,10 +1139,10 @@
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,10 +1297,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,6 +1308,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1545,13 +1640,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.7407407407407" customWidth="1"/>
     <col min="2" max="2" width="14.1111111111111" style="27" customWidth="1"/>
@@ -1588,8 +1683,8 @@
       </c>
     </row>
     <row r="3" ht="41.7" customHeight="1" spans="1:4">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
@@ -1598,8 +1693,8 @@
       </c>
     </row>
     <row r="4" ht="41.7" customHeight="1" spans="1:4">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="34" t="s">
         <v>10</v>
       </c>
@@ -1608,8 +1703,8 @@
       </c>
     </row>
     <row r="5" ht="41.7" customHeight="1" spans="1:4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1618,8 +1713,8 @@
       </c>
     </row>
     <row r="6" ht="41.7" customHeight="1" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="34" t="s">
         <v>13</v>
       </c>
@@ -1627,10 +1722,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1640,10 +1745,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1656,7 +1761,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1758,26 +1863,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="20.4" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:4">
@@ -1785,13 +1890,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:4">
@@ -1799,13 +1904,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="1:4">
@@ -1813,13 +1918,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="100.05" customHeight="1" spans="1:4">
@@ -1827,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="100.05" customHeight="1" spans="1:4">
@@ -1841,13 +1946,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" ht="100.05" customHeight="1" spans="1:4">
@@ -1855,13 +1960,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="100.05" customHeight="1" spans="1:4">
@@ -1869,13 +1974,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1883,13 +1988,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1897,13 +2002,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1911,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1925,13 +2030,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -1939,13 +2044,27 @@
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>47</v>
+    </row>
+    <row r="20" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A20" s="10">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +2081,7 @@
   <sheetPr/>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1976,7 +2095,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2078,26 +2197,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:4">
@@ -2105,13 +2224,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:4">
@@ -2119,13 +2238,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="1:4">
@@ -2134,10 +2253,10 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>时间</t>
   </si>
@@ -242,7 +242,7 @@
     <t>2023年 10月 19日</t>
   </si>
   <si>
-    <t>1.《普林斯顿微积顿读本》P78-P86
+    <t>1.《普林斯顿微积顿读本》P86-P96
 2.《路由与交换机技术》P102-P118
 3.《精通Git》P55-P63
 4.《网络是怎样连接的》P11-P16
@@ -263,6 +263,17 @@
 6.《离散数学》10min</t>
   </si>
   <si>
+    <t>1.《普林斯顿微积顿读本》P96-P108
+2.《路由与交换机技术》P118-P135
+3.《精通Git》P63-P66
+4.《网络是怎样连接的》P16-正文P4
+5.《离散数学》致学生-正文第一页
+6.英语考研阅读文章+Medium一篇文章</t>
+  </si>
+  <si>
+    <t>2023年 10月 22日</t>
+  </si>
+  <si>
     <t>学习周报</t>
   </si>
   <si>
@@ -292,6 +303,14 @@
 3.《精通Git》15min
 4.medium一篇文章，或考研公众号一篇文章，写日记
 5.《JS》每天一小时</t>
+  </si>
+  <si>
+    <t>1.《普林斯顿微积顿读本》P62-P108
+2.《路由与交换机技术》P56-P135
+3.《精通Git》P34-P66
+4.《网络是怎样连接的》P16-正文P4
+5.《离散数学》序言-正文第一页
+6.英语考研阅读文章+Medium一篇文章</t>
   </si>
   <si>
     <t>2023年10月16日-2023年10月22日</t>
@@ -305,6 +324,16 @@
 4.medium一篇文章，或考研公众号一篇文章，写日记
 5.《网络是怎样连接的》10min
 5.《离散数学》10min</t>
+  </si>
+  <si>
+    <t>第一个月第三周231016-231022
+试运行，每天：
+1. 《路由与交换机技术》60min
+2.《微积分普林斯顿读本》30min
+3.《精通Git》30min
+4.medium一篇文章，或考研公众号一篇文章，写日记
+5.《网络是怎样连接的》15min
+5.《离散数学》15min</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1671,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
@@ -1745,10 +1774,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2067,6 +2096,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="21" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
+      <c r="A21" s="10">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:W4"/>
@@ -2079,10 +2122,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2095,7 +2138,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2219,44 +2262,60 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="100.05" customHeight="1" spans="1:4">
+    <row r="8" ht="150" customHeight="1" spans="1:4">
       <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="100.05" customHeight="1" spans="1:4">
+    <row r="9" ht="96.6" spans="1:4">
       <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" ht="100.05" customHeight="1" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" ht="110.4" spans="1:4">
       <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="C10" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" ht="110.4" spans="1:4">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>时间</t>
   </si>
@@ -274,6 +274,27 @@
     <t>2023年 10月 22日</t>
   </si>
   <si>
+    <t>1.《普林斯顿微积顿读本》P96-P108
+2.《路由与交换机技术》P118-P135
+3.《精通Git》P63-P66
+4.《网络是怎样连接的》正文P4-P12
+5.《离散数学》致学生-正文第一页
+6.英语考研阅读文章+Medium一篇文章</t>
+  </si>
+  <si>
+    <t>2023年 10月 23日</t>
+  </si>
+  <si>
+    <t>第一个月第四周231016-231022
+试运行，每天：
+1. 《路由与交换机技术》60min
+2.《微积分普林斯顿读本》30min
+3.《精通Git》30min
+4.medium一篇文章，或考研公众号一篇文章，写日记
+5.《网络是怎样连接的》15min
+5.《离散数学》15min</t>
+  </si>
+  <si>
     <t>学习周报</t>
   </si>
   <si>
@@ -326,14 +347,7 @@
 5.《离散数学》10min</t>
   </si>
   <si>
-    <t>第一个月第三周231016-231022
-试运行，每天：
-1. 《路由与交换机技术》60min
-2.《微积分普林斯顿读本》30min
-3.《精通Git》30min
-4.medium一篇文章，或考研公众号一篇文章，写日记
-5.《网络是怎样连接的》15min
-5.《离散数学》15min</t>
+    <t>2023年10月23日-2023年10月29日</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +1788,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2082,7 +2096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
+    <row r="20" customFormat="1" ht="110.4" spans="1:4">
       <c r="A20" s="10">
         <v>13</v>
       </c>
@@ -2096,7 +2110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
+    <row r="21" customFormat="1" ht="110.4" spans="1:4">
       <c r="A21" s="10">
         <v>14</v>
       </c>
@@ -2108,6 +2122,20 @@
       </c>
       <c r="D21" s="11" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="110.4" spans="1:4">
+      <c r="A22" s="10">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +2152,7 @@
   <sheetPr/>
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B9" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2138,7 +2166,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2262,15 +2290,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="150" customHeight="1" spans="1:4">
+    <row r="8" ht="82.8" spans="1:4">
       <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>24</v>
@@ -2281,13 +2309,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" ht="110.4" spans="1:4">
@@ -2295,13 +2323,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" ht="110.4" spans="1:4">
@@ -2309,13 +2337,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -274,11 +274,11 @@
     <t>2023年 10月 22日</t>
   </si>
   <si>
-    <t>1.《普林斯顿微积顿读本》P96-P108
-2.《路由与交换机技术》P118-P135
-3.《精通Git》P63-P66
+    <t>1.《普林斯顿微积顿读本》P108-P121
+2.《路由与交换机技术》P135-P145
+3.《精通Git》P66-P77
 4.《网络是怎样连接的》正文P4-P12
-5.《离散数学》致学生-正文第一页
+5.《离散数学》正文P1-P4
 6.英语考研阅读文章+Medium一篇文章</t>
   </si>
   <si>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="10007"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>时间</t>
   </si>
@@ -39,7 +39,7 @@
     <t>路由与交换技术</t>
   </si>
   <si>
-    <t>第一周半小时/天，第二周45min/天，第三周一个小时/天，第四周两小时/天</t>
+    <t>第一周半小时/天，第二周45min/天，第三周一个小时/天</t>
   </si>
   <si>
     <t>英语</t>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>离散数学</t>
+  </si>
+  <si>
+    <t>《TCP/IP详解》</t>
+  </si>
+  <si>
+    <t>《Wireshark数据包分析实战》</t>
+  </si>
+  <si>
+    <t>《鸟哥的LINUX私房菜·基础学习篇》</t>
+  </si>
+  <si>
+    <t>《图解HTTP》</t>
+  </si>
+  <si>
+    <t>《图解TCP/IP》</t>
+  </si>
+  <si>
+    <t>《图解网络硬件》</t>
   </si>
   <si>
     <t>学习日报</t>
@@ -293,6 +311,75 @@
 4.medium一篇文章，或考研公众号一篇文章，写日记
 5.《网络是怎样连接的》15min
 5.《离散数学》15min</t>
+  </si>
+  <si>
+    <t>1.考研英语阅读文章一篇
+2.《TCP/IP详解》译者序-P1
+3.《Wireshark数据包分析与实战》序-P1
+4.《网络是怎样连接的》P12-P17
+5.《离散数学》P4-P6
+6.《微积分普林斯顿读本》P121-P132
+7.《TCP/IP详解》译者序-P1</t>
+  </si>
+  <si>
+    <t>2023年 10月 26日</t>
+  </si>
+  <si>
+    <t>第一个月第四周231016-231022
+试运行，每天：
+1. 《路由与交换机技术》60min
+2.《微积分普林斯顿读本》30min
+3.《精通Git》30min
+4.medium一篇文章，或考研公众号一篇文章，写日记
+5.《网络是怎样连接的》15min
+5.《离散数学》15min
+6.《TCP/IP详解》10min
+7.《Wireshark数据包分析与实战》10min</t>
+  </si>
+  <si>
+    <t>1.《精通Git》P77-P82
+2.《鸟哥的;INUX私房菜·基础学习篇》序-P3
+3.《图解HTTP》序-P4
+4.《图解TCP/IP》序-P5
+5.《图解网络硬件》序-P3
+6《路由与交换技术》P145-P158
+7.《网络是怎样连接的》P17-P25 
+8.《普林斯顿微积分读本》P132-P145
+9.《Wireshark数据包分析与实战》P1-P6</t>
+  </si>
+  <si>
+    <t>2023年 10月 27日</t>
+  </si>
+  <si>
+    <t>第一个月第四周231016-231022
+试运行，每天：
+1. 《路由与交换机技术》60min
+2.《微积分普林斯顿读本》30min
+3.《精通Git》30min
+4.medium一篇文章，或考研公众号一篇文章，写日记
+5.《网络是怎样连接的》15min
+5.《离散数学》15min
+6.《TCP/IP详解》10min
+7.《Wireshark数据包分析与实战》10min
+8.《图解HTTP》10min
+9.《图解TCP/IP》10min
+10.《图解》网络硬件10min
+11.《鸟哥的LINUX私房菜·基础学习篇》10min</t>
+  </si>
+  <si>
+    <t>1.《精通Git》P82P-P100
+2.《鸟哥的;INUX私房菜·基础学习篇》P3-P6
+3.《图解HTTP》P4-P10
+4.《图解TCP/IP》P5-P8
+5.《图解网络硬件》P3-P8
+6《路由与交换技术》P158-P180
+7.《网络是怎样连接的》P25 -P28
+8.《普林斯顿微积分读本》P145-P156
+9.《Wireshark数据包分析与实战》P6-P10
+10.《离散数学》P6-P8</t>
+  </si>
+  <si>
+    <t>2023年 10月 28日</t>
   </si>
   <si>
     <t>学习周报</t>
@@ -1683,13 +1770,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.7407407407407" customWidth="1"/>
     <col min="2" max="2" width="14.1111111111111" style="27" customWidth="1"/>
@@ -1766,8 +1853,8 @@
       </c>
     </row>
     <row r="7" ht="41.7" customHeight="1" spans="1:4">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="34" t="s">
         <v>14</v>
       </c>
@@ -1775,10 +1862,70 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="41.7" customHeight="1" spans="1:4">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1788,10 +1935,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1804,7 +1951,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1906,26 +2053,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="20.4" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:4">
@@ -1933,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:4">
@@ -1947,13 +2094,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="1:4">
@@ -1961,13 +2108,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="100.05" customHeight="1" spans="1:4">
@@ -1975,13 +2122,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="100.05" customHeight="1" spans="1:4">
@@ -1989,13 +2136,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="100.05" customHeight="1" spans="1:4">
@@ -2003,13 +2150,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="100.05" customHeight="1" spans="1:4">
@@ -2017,13 +2164,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -2031,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -2045,13 +2192,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -2059,13 +2206,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -2073,13 +2220,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="100.05" customHeight="1" spans="1:4">
@@ -2087,13 +2234,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="110.4" spans="1:4">
@@ -2101,13 +2248,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="110.4" spans="1:4">
@@ -2115,13 +2262,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="110.4" spans="1:4">
@@ -2129,13 +2276,55 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="138" spans="1:4">
+      <c r="A23" s="10">
+        <v>16</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="193.2" spans="1:4">
+      <c r="A24" s="10">
+        <v>16</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="193.2" spans="1:4">
+      <c r="A25" s="10">
+        <v>16</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2341,7 @@
   <sheetPr/>
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B9" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2166,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2268,26 +2457,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="82.8" spans="1:4">
@@ -2295,13 +2484,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="96.6" spans="1:4">
@@ -2309,13 +2498,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="110.4" spans="1:4">
@@ -2323,27 +2512,27 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" ht="110.4" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="193.2" spans="1:4">
       <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/dairy/自学计划与记录.xlsx
+++ b/dairy/自学计划与记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="阶段自学计划" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>时间</t>
   </si>
@@ -382,6 +382,21 @@
     <t>2023年 10月 28日</t>
   </si>
   <si>
+    <t>1.《精通Git》P100-P113
+2.《鸟哥的;INUX私房菜·基础学习篇》P3-P6
+3.《图解HTTP》P10-P17
+4.《图解TCP/IP》P8-P13
+5.《图解网络硬件》P8-P16
+6《路由与交换技术》P180-P194
+7.《网络是怎样连接的》P28-P35
+8.《普林斯顿微积分读本》P156-P169
+9.《Wireshark数据包分析与实战》P10-P14
+10.《离散数学》P8T1-P9T11</t>
+  </si>
+  <si>
+    <t>2023年 10月 29日</t>
+  </si>
+  <si>
     <t>学习周报</t>
   </si>
   <si>
@@ -434,7 +449,34 @@
 5.《离散数学》10min</t>
   </si>
   <si>
+    <t>1.《精通Git》P34-P113
+2.《鸟哥的;INUX私房菜·基础学习篇》P3-P6
+3.《图解HTTP》P10-P17
+4.《图解TCP/IP》P8-P13
+5.《图解网络硬件》P8-P16
+6《路由与交换技术》P135-P194
+7.《网络是怎样连接的》P4-P35
+8.《普林斯顿微积分读本》P108-P169
+9.《Wireshark数据包分析与实战》P10-P14
+10.《离散数学》P1-P9T11</t>
+  </si>
+  <si>
     <t>2023年10月23日-2023年10月29日</t>
+  </si>
+  <si>
+    <t>第一个月第四周231016-231022
+试运行，每天：
+1. 《路由与交换机技术》60min
+2.《微积分普林斯顿读本》30min
+3.《精通Git》30min
+4.medium一篇文章，或考研公众号一篇文章，写日记
+5.《网络是怎样连接的》20min/偶数日
+5.《离散数学》20min
+6.《Wireshark数据包分析与实战》20min/偶数日
+7.《图解HTTP》20min/奇数日
+8.《图解TCP/IP》20min/奇数日
+9.《图解网络硬件》10min
+10.《鸟哥的LINUX私房菜·基础学习篇》10min</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1814,7 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1935,10 +1977,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2301,7 +2343,7 @@
     </row>
     <row r="24" customFormat="1" ht="193.2" spans="1:4">
       <c r="A24" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>68</v>
@@ -2315,7 +2357,7 @@
     </row>
     <row r="25" customFormat="1" ht="193.2" spans="1:4">
       <c r="A25" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>71</v>
@@ -2324,6 +2366,20 @@
         <v>72</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="193.2" spans="1:4">
+      <c r="A26" s="10">
+        <v>19</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2339,10 +2395,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2355,7 +2411,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2484,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>30</v>
@@ -2498,13 +2554,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" ht="110.4" spans="1:4">
@@ -2512,13 +2568,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" ht="193.2" spans="1:4">
@@ -2526,13 +2582,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="12" ht="179.4" spans="1:4">
+      <c r="A12" s="10">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
